--- a/xlsx/遵循先例_intext.xlsx
+++ b/xlsx/遵循先例_intext.xlsx
@@ -29,13 +29,13 @@
     <t>普通法</t>
   </si>
   <si>
-    <t>政策_政策_美國_遵循先例</t>
+    <t>政策_政策_美国_遵循先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%A4%E6%B1%BA%E5%85%88%E4%BE%8B</t>
   </si>
   <si>
-    <t>判決先例</t>
+    <t>判决先例</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E9%99%A2</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>歐陸法系</t>
+    <t>欧陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%BE%8E%E6%B3%95%E7%B3%BB</t>
@@ -71,13 +71,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E9%83%A8%E9%96%80</t>
   </si>
   <si>
-    <t>司法部門</t>
+    <t>司法部门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B%E5%88%91%E4%BA%8B%E6%B3%95%E7%AC%AC175%E6%A2%9D</t>
   </si>
   <si>
-    <t>德國刑事法第175條</t>
+    <t>德国刑事法第175条</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%90%E6%96%87%E6%B3%95</t>
@@ -107,19 +107,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E6%B3%95</t>
   </si>
   <si>
-    <t>憲法</t>
+    <t>宪法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%86%B2%E5%88%B6%E6%80%A7%E6%B3%95%E5%BE%8B</t>
   </si>
   <si>
-    <t>憲制性法律</t>
+    <t>宪制性法律</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A5%91%E7%B4%84</t>
   </si>
   <si>
-    <t>契約</t>
+    <t>契约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E6%B3%95</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AD%89%E6%93%9A</t>
   </si>
   <si>
-    <t>證據</t>
+    <t>证据</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%B3%95</t>
   </si>
   <si>
-    <t>國際法</t>
+    <t>国际法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%BA%E6%9D%83%E6%B3%95</t>
@@ -161,25 +161,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>民事訴訟法</t>
+    <t>民事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%91%E4%BA%8B%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>刑事訴訟法</t>
+    <t>刑事诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E8%A8%B4%E8%A8%9F%E6%B3%95</t>
   </si>
   <si>
-    <t>行政訴訟法</t>
+    <t>行政诉讼法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%A9%E6%AC%8A</t>
   </si>
   <si>
-    <t>物權</t>
+    <t>物权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B3%95</t>
@@ -221,7 +221,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A0%B4%E7%94%A2</t>
   </si>
   <si>
-    <t>破產</t>
+    <t>破产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%95%86%E6%B3%95</t>
@@ -233,13 +233,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%B6%E7%88%AD%E6%B3%95</t>
   </si>
   <si>
-    <t>競爭法</t>
+    <t>竞争法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E7%A7%81%E6%B3%95</t>
   </si>
   <si>
-    <t>國際私法</t>
+    <t>国际私法</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Construction_law</t>
@@ -311,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%9F%A5%E8%AD%98%E7%94%A2%E6%AC%8A</t>
   </si>
   <si>
-    <t>知識產權</t>
+    <t>知识产权</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/International_criminal_law</t>
@@ -323,13 +323,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E4%BA%BA%E6%AC%8A%E6%B3%95</t>
   </si>
   <si>
-    <t>國際人權法</t>
+    <t>国际人权法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8B%9E%E5%B7%A5%E6%B3%95</t>
   </si>
   <si>
-    <t>勞工法</t>
+    <t>劳工法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%98%E4%BA%89%E6%B3%95</t>
@@ -365,19 +365,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B9%BC%E6%89%BF%E6%B3%95</t>
   </si>
   <si>
-    <t>繼承法</t>
+    <t>继承法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A1%E7%94%A2</t>
   </si>
   <si>
-    <t>財產</t>
+    <t>财产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%BA%E5%9B%91</t>
   </si>
   <si>
-    <t>遺囑</t>
+    <t>遗嘱</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Product_liability</t>
@@ -437,19 +437,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E6%AC%8A%E7%A5%9E%E6%8E%88%E8%AA%AA</t>
   </si>
   <si>
-    <t>君權神授說</t>
+    <t>君权神授说</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%AC%8A</t>
   </si>
   <si>
-    <t>人權</t>
+    <t>人权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E6%AC%8A%E5%88%A9</t>
   </si>
   <si>
-    <t>自然權利</t>
+    <t>自然权利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E6%A1%88</t>
@@ -479,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A9%94%E4%BB%A4%E6%96%87%E6%9B%B8</t>
   </si>
   <si>
-    <t>詔令文書</t>
+    <t>诏令文书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E5%91%BD%E4%BB%A4</t>
@@ -509,7 +509,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>行政法規</t>
+    <t>行政法规</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Rulemaking</t>
@@ -533,25 +533,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>法規</t>
+    <t>法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E8%81%AF%E9%82%A6%E8%AD%B0%E6%9C%83%E7%AB%8B%E6%B3%95</t>
   </si>
   <si>
-    <t>英聯邦議會立法</t>
+    <t>英联邦议会立法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%9C%8B%E6%9C%83%E6%B3%95%E6%A1%88</t>
   </si>
   <si>
-    <t>美國國會法案</t>
+    <t>美国国会法案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A2%9D%E7%B4%84</t>
   </si>
   <si>
-    <t>條約</t>
+    <t>条约</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E7%B3%BB</t>
@@ -563,13 +563,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%99%B8%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>大陸法系</t>
+    <t>大陆法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B3%95%E7%B3%BB</t>
   </si>
   <si>
-    <t>中華法系</t>
+    <t>中华法系</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%A4%9A%E5%85%83%E8%AE%BA</t>
@@ -617,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B2%99%E9%87%8C%E4%BA%9E%E6%B3%95%E8%A6%8F</t>
   </si>
   <si>
-    <t>沙里亞法規</t>
+    <t>沙里亚法规</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%85%E9%A6%AC%E6%B3%95</t>
   </si>
   <si>
-    <t>羅馬法</t>
+    <t>罗马法</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E6%B3%95%E7%B3%BB</t>
@@ -647,13 +647,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>法學</t>
+    <t>法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%8E%9F%E5%89%87</t>
   </si>
   <si>
-    <t>法律原則</t>
+    <t>法律原则</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%B9%E5%88%A4%E6%B3%95%E5%BE%8B%E7%A0%94%E7%A9%B6</t>
@@ -665,7 +665,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E8%BC%83%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>比較法學</t>
+    <t>比较法学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Feminist_legal_theory</t>
@@ -719,7 +719,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>法律哲學</t>
+    <t>法律哲学</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Adjudication</t>
@@ -743,7 +743,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E4%BA%8B%E6%B3%95%E5%BA%AD</t>
   </si>
   <si>
-    <t>軍事法庭</t>
+    <t>军事法庭</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Dispute_resolution</t>
@@ -755,7 +755,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%96%AF%E8%98%AD%E6%95%99%E6%B3%95%E5%AD%B8</t>
   </si>
   <si>
-    <t>伊斯蘭教法學</t>
+    <t>伊斯兰教法学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BE%8B%E6%84%8F%E8%A7%81</t>
@@ -773,7 +773,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E5%B9%B3%E7%B4%B3%E5%A3%AB</t>
   </si>
   <si>
-    <t>太平紳士</t>
+    <t>太平绅士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8E%A8%E5%AE%98</t>
@@ -791,25 +791,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E8%A6%86%E6%A0%B8</t>
   </si>
   <si>
-    <t>司法覆核</t>
+    <t>司法复核</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E7%AE%A1%E8%BD%84%E6%AC%8A</t>
   </si>
   <si>
-    <t>司法管轄權</t>
+    <t>司法管辖权</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%99%AA%E5%AF%A9%E5%9C%98</t>
   </si>
   <si>
-    <t>陪審團</t>
+    <t>陪审团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E5%B9%B3%E6%AD%A3%E7%BE%A9</t>
   </si>
   <si>
-    <t>公平正義</t>
+    <t>公平正义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Legal_profession</t>
@@ -827,7 +827,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%9F%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>訟務律師</t>
+    <t>讼务律师</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Counsel</t>
@@ -839,25 +839,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>律師</t>
+    <t>律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AA%A2%E5%AF%9F%E5%AE%98</t>
   </si>
   <si>
-    <t>檢察官</t>
+    <t>检察官</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8B%E5%8B%99%E5%BE%8B%E5%B8%AB</t>
   </si>
   <si>
-    <t>事務律師</t>
+    <t>事务律师</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AD%B8%E5%AE%B6</t>
   </si>
   <si>
-    <t>法學家</t>
+    <t>法学家</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Paralegal</t>
@@ -917,19 +917,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>律師學院</t>
+    <t>律师学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%8B%E5%B8%AB%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>律師事務所</t>
+    <t>律师事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%AC%E6%B0%91%E7%A4%BE%E6%9C%83</t>
   </si>
   <si>
-    <t>公民社會</t>
+    <t>公民社会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%BA%AD</t>
@@ -953,19 +953,19 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9F%B7%E9%81%94%E5%90%8F</t>
   </si>
   <si>
-    <t>執達吏</t>
+    <t>执达吏</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%B8%E8%88%89%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>選舉委員會</t>
+    <t>选举委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E6%94%BF%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>行政機關</t>
+    <t>行政机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B8%E6%B3%95%E6%9C%BA%E5%85%B3</t>
@@ -989,13 +989,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E9%97%9C</t>
   </si>
   <si>
-    <t>立法機關</t>
+    <t>立法机关</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E9%9A%8A</t>
   </si>
   <si>
-    <t>軍隊</t>
+    <t>军队</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%A6%E5%AF%9F</t>
@@ -1007,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E9%BB%A8</t>
   </si>
   <si>
-    <t>政黨</t>
+    <t>政党</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Tribunal</t>
